--- a/biology/Zoologie/Bowie_teenagewildlife/Bowie_teenagewildlife.xlsx
+++ b/biology/Zoologie/Bowie_teenagewildlife/Bowie_teenagewildlife.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowie teenagewildlife est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowie teenagewildlife est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sumatra en Indonésie[1]. Elle se rencontre sur le mont Singalang, dans le parc national de Kerinci Seblat et vers Bukittinggi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sumatra en Indonésie. Elle se rencontre sur le mont Singalang, dans le parc national de Kerinci Seblat et vers Bukittinggi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,5 mm de long sur 4,2 mm et l'abdomen 4,1 mm de long sur 2,6 mm et la carapace de la femelle paratype mesure 4,5 mm de long sur 3,6 mm et l'abdomen 4,7 mm de long sur 2,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,5 mm de long sur 4,2 mm et l'abdomen 4,1 mm de long sur 2,6 mm et la carapace de la femelle paratype mesure 4,5 mm de long sur 3,6 mm et l'abdomen 4,7 mm de long sur 2,9 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Jäger en 2022.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à Teenage Wildlife, la chanson de David Bowie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jäger, 2022 : « Bowie gen. nov., a diverse lineage of ground-dwelling spiders occurring from the Himalayas to Papua New Guinea and northern Australia (Araneae: Ctenidae: Cteninae). » Zootaxa, no 5170(1), p. 1-200.</t>
         </is>
